--- a/biology/Zoologie/Eupyrrhoglossum_sagra/Eupyrrhoglossum_sagra.xlsx
+++ b/biology/Zoologie/Eupyrrhoglossum_sagra/Eupyrrhoglossum_sagra.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Eupyrrhoglossum sagra est une espèce d’insectes lépidoptères de la famille des Sphingidae, de la sous-famille des Macroglossinae, de la tribu des Dilophonotini et du genre Eupyrrhoglossum. Répandue en Amérique du Nord, centrale et Amérique du Sud.
 </t>
@@ -513,14 +525,17 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">L'Imago
-Il est immédiatement reconnaissable par sa tache subterminale semi-transparente observable dans la zone de l'avant, entre les nervures et RS3 Rs4, qui ne fondent pas au sommet. En particulier, RS3 se termine sur le rebord costal, peu avant le sommet.
+          <t>L'Imago</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est immédiatement reconnaissable par sa tache subterminale semi-transparente observable dans la zone de l'avant, entre les nervures et RS3 Rs4, qui ne fondent pas au sommet. En particulier, RS3 se termine sur le rebord costal, peu avant le sommet.
 			Mâle Muséum de Toulouse
 			Mâle revers
 			Femelle  Muséum de Toulouse
 			Femelle revers
-La chenille
-La chenille est verte et cylindrique ; elle présente le croissant caudal sur la huitième urotergite.
 </t>
         </is>
       </c>
@@ -546,18 +561,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Biologie</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Les imagos éclosent des chrysalides formées dans des cocons lâches filés parmi la litière de surface. L'éclosion peut se produire dans les quinze jours.
-Pour s'accoupler, les femelles attirent les mâles par une phéromone libérée par une glande située dans l'abdomen. 
-Période de vol
-L'espèce est pluriannuelle et les spécimens adultes peuvent être capturés pendant tous les mois de l'année.
-Alimentation
-Les adultes se nourrissent du nectar des fleurs.
-Les chenilles se nourrissent sur Guettarda macrosperma et Chomelia spinosa et d'autres espèces de la famille des Rubiacées.
+          <t>La chenille</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La chenille est verte et cylindrique ; elle présente le croissant caudal sur la huitième urotergite.
 </t>
         </is>
       </c>
@@ -583,10 +598,121 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les imagos éclosent des chrysalides formées dans des cocons lâches filés parmi la litière de surface. L'éclosion peut se produire dans les quinze jours.
+Pour s'accoupler, les femelles attirent les mâles par une phéromone libérée par une glande située dans l'abdomen. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Eupyrrhoglossum_sagra</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Eupyrrhoglossum_sagra</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Période de vol</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est pluriannuelle et les spécimens adultes peuvent être capturés pendant tous les mois de l'année.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Eupyrrhoglossum_sagra</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Eupyrrhoglossum_sagra</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Alimentation</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les adultes se nourrissent du nectar des fleurs.
+Les chenilles se nourrissent sur Guettarda macrosperma et Chomelia spinosa et d'autres espèces de la famille des Rubiacées.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Eupyrrhoglossum_sagra</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Eupyrrhoglossum_sagra</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Distribution et habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Distribution
 Dans les basses terres tropicales et subtropicales
@@ -596,40 +722,110 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Eupyrrhoglossum_sagra</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Eupyrrhoglossum_sagra</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Eupyrrhoglossum_sagra</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Eupyrrhoglossum_sagra</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L’espèce Eupyrrhoglossum sagra  a été décrite par l'entomologiste cubain Felipe Poey y Aloy en 1832 sous le nom initial de Macroglossum sagra [1].
-La localité type est Cuba.
-Synonymie
-Macroglossum sagra  Poey, 1832 Protonyme
-Macroglossa sagra Walker, 1856[2]
-Macroglossa harpyia (Schaufuss, 1870)[3].
-Taxinomie
-Pas de sous-espèce décrite.
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>L’espèce Eupyrrhoglossum sagra  a été décrite par l'entomologiste cubain Felipe Poey y Aloy en 1832 sous le nom initial de Macroglossum sagra .
+La localité type est Cuba.</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Eupyrrhoglossum_sagra</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Eupyrrhoglossum_sagra</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Synonymie</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Macroglossum sagra  Poey, 1832 Protonyme
+Macroglossa sagra Walker, 1856
+Macroglossa harpyia (Schaufuss, 1870).</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Eupyrrhoglossum_sagra</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Eupyrrhoglossum_sagra</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de sous-espèce décrite.
 </t>
         </is>
       </c>
